--- a/biology/Botanique/Pulmonaire/Pulmonaire.xlsx
+++ b/biology/Botanique/Pulmonaire/Pulmonaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">On appelle « Pulmonaire » diverses plantes et lichens dont les feuilles, la racine ou le thalle ont une forme évoquant plus ou moins celle d'un poumon.
 Sur les autres projets Wikimedia :
@@ -513,7 +525,9 @@
           <t>Les pulmonaires, des plantes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parmi la famille des Boraginaceae,
 le genre Pulmonaria (« pulmonaire » en latin) voit la majorité de ses espèces nommées « Pulmonaire », notamment
@@ -552,7 +566,9 @@
           <t>La pulmonaire, un lichen</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La Pulmonaire est également un lichen, et donc non une plante, très répandu, Lobaria pulmonaria
 			Une feuille de Pulmonaire officinale
